--- a/exportados.xlsx
+++ b/exportados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\home\chrisbermudezr\Indices_Climaticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750F59DC-9CA7-41F9-B22E-828C2B442E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4971838-7D5F-45D7-BEC5-BA7DA7F0BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>ONI</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Esta fase se caracteriza porque las anomalías de TSM en la región 3 son inferiores a -0.5 °C</t>
+  </si>
+  <si>
+    <t>Esta fase se caracteriza porque las anomalías de TSM en la región 3.4 son inferiores a -0.5 °C</t>
   </si>
 </sst>
 </file>
@@ -468,21 +474,21 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.6328125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="95.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="60.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -519,10 +525,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45809</v>
+        <v>45870</v>
       </c>
       <c r="B2">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -551,16 +557,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -583,10 +589,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45839</v>
+        <v>45901</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -615,10 +621,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45870</v>
+        <v>45931</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -647,10 +653,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B6">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -662,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -679,10 +685,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -711,25 +717,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B8">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -743,10 +749,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45809</v>
+        <v>45931</v>
       </c>
       <c r="B9">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -758,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -775,16 +781,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45839</v>
+        <v>45901</v>
       </c>
       <c r="B10">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -807,16 +813,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45870</v>
+        <v>45931</v>
       </c>
       <c r="B11">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -839,195 +845,79 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B14">
-        <v>-0.2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45809</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45839</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B17">
-        <v>0.7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
